--- a/data/trans_bre/P22_R3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P22_R3-Edad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.1124611571185439</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.7149162331527672</v>
+        <v>-0.7149162331527673</v>
       </c>
     </row>
     <row r="5">
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2488014713047939</v>
+        <v>-0.4890759489377048</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.665174430386305</v>
+        <v>-3.597013409894206</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.763913706327884</v>
+        <v>-2.896142865726294</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.971627671546528</v>
+        <v>-6.735756603132331</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.09827687411906759</v>
+        <v>-0.1355844537761349</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7126775611430199</v>
+        <v>-0.7028821654046679</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5999147182234449</v>
+        <v>-0.6252256755024215</v>
       </c>
       <c r="J5" s="6" t="n">
         <v>-1</v>
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.997091300537675</v>
+        <v>5.199634924114095</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.030386750035783</v>
+        <v>1.105805151932036</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.866223597900674</v>
+        <v>1.999483002902191</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1269231975023124</v>
+        <v>0.09482401502084135</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.174050167826481</v>
+        <v>2.143555196347429</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4183013130023883</v>
+        <v>0.4823766928020023</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8945187462546828</v>
+        <v>1.045748265990108</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.31788621517208</v>
+        <v>1.080915613525697</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.9778002263251588</v>
+        <v>-0.9143447712011969</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.86254126426267</v>
+        <v>-2.69029021266312</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.964026139024686</v>
+        <v>-1.991196492013872</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.497638481335301</v>
+        <v>-4.737518337983589</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2333511068134745</v>
+        <v>-0.2184310342267719</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5373173003996092</v>
+        <v>-0.5336786347526493</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4431967300410419</v>
+        <v>-0.4581022417258214</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8141364585858307</v>
+        <v>-0.8502915061699198</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.619345058751587</v>
+        <v>3.426864802144901</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.602605111987386</v>
+        <v>1.778863334256492</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.22669189747544</v>
+        <v>2.392163198240418</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6809497838689467</v>
+        <v>0.7218688455397111</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.313153017735119</v>
+        <v>1.325814695888705</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5773115482782647</v>
+        <v>0.6994926060474312</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9177404727244782</v>
+        <v>0.9348802325699791</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6096453926811199</v>
+        <v>0.4886448633025245</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.871374857524311</v>
+        <v>-2.281494443789805</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.492185269345646</v>
+        <v>-4.230831622091213</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.951811624557382</v>
+        <v>-4.050586149232074</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.184274420488087</v>
+        <v>-2.127735046717356</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4014982697286751</v>
+        <v>-0.4568693077499496</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6460394706375749</v>
+        <v>-0.6344327649360646</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5262024170594476</v>
+        <v>-0.5265216394337759</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4517515762172719</v>
+        <v>-0.4877932951093202</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.465341121940481</v>
+        <v>2.289732466231523</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5343778939171371</v>
+        <v>0.5236381608236668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.129126127169598</v>
+        <v>1.257733846957159</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.59188910202385</v>
+        <v>1.735254314863196</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9368691630917702</v>
+        <v>0.8437431773585287</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1565267595452634</v>
+        <v>0.1426547713907808</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2389272276776294</v>
+        <v>0.252549984381515</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8219736533841366</v>
+        <v>0.7756634790712508</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.289190695438021</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.8491252869939643</v>
+        <v>-0.8491252869939632</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.372810729075344</v>
@@ -949,7 +949,7 @@
         <v>-0.2474391994223029</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2157042137029053</v>
+        <v>-0.2157042137029051</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.340056887632352</v>
+        <v>-5.551644435589815</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.676927821030976</v>
+        <v>-2.432777584073932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.97665388491999</v>
+        <v>-3.861116689932065</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.946402446504801</v>
+        <v>-2.855783191851665</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6439541844404431</v>
+        <v>-0.6425764322698867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4073879396767165</v>
+        <v>-0.3875479018424821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5830972859349549</v>
+        <v>-0.5703911000513862</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.540984502846779</v>
+        <v>-0.5554510676548925</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2660851036149019</v>
+        <v>0.1622121632626378</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.524432395490628</v>
+        <v>3.369347414219429</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9964585725504457</v>
+        <v>1.23316063755699</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7941172598374094</v>
+        <v>0.962091219549557</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05608005593287133</v>
+        <v>0.05665335550833039</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9377411133290224</v>
+        <v>0.9283875498343414</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.29437557425086</v>
+        <v>0.3460195770728128</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2926375821103948</v>
+        <v>0.355222813125015</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-2.94962507040603</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09692124023124478</v>
+        <v>0.09692124023124547</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.914711961990671</v>
@@ -1049,7 +1049,7 @@
         <v>-0.4874022961016932</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.03149441243492999</v>
+        <v>0.03149441243493022</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.128001460428596</v>
+        <v>-0.06313137396881219</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.341248317779082</v>
+        <v>-5.422471067250209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.21720299082351</v>
+        <v>-5.82949472360618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.731615101905813</v>
+        <v>-1.616670117697717</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.02227779783403799</v>
+        <v>-0.0867914151308594</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.7488146266878922</v>
+        <v>-0.7195760034895712</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.752906596165941</v>
+        <v>-0.7530252896749005</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4300128655957911</v>
+        <v>-0.3964521191273672</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.774915224201766</v>
+        <v>5.819381323446245</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6082870781381571</v>
+        <v>0.7969794399043119</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.3158568517391642</v>
+        <v>-0.2619878703707474</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.727807598576945</v>
+        <v>1.855914177828686</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.871161677670826</v>
+        <v>3.119805608454209</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2089894495503634</v>
+        <v>0.3146983040314806</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.02573510979766115</v>
+        <v>0.02691952064091304</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8283161196725697</v>
+        <v>0.9218552972538381</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-0.07129985008895237</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.8725114245993537</v>
+        <v>-0.872511424599355</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01563913150931247</v>
@@ -1149,7 +1149,7 @@
         <v>-0.01882517233352615</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1770165346762058</v>
+        <v>-0.177016534676206</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.573804081487127</v>
+        <v>-2.996691597728958</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-7.455438013925302</v>
+        <v>-7.887429375863735</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.728482756920519</v>
+        <v>-3.30886733246267</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.015360954290952</v>
+        <v>-3.319200285654111</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5030585740609679</v>
+        <v>-0.53526300765914</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8897388196954068</v>
+        <v>-0.8831658213100833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5445933866054077</v>
+        <v>-0.6342396578049019</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4898848523997497</v>
+        <v>-0.5233143156843252</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.121239993693117</v>
+        <v>2.872230449778216</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.6992713300586075</v>
+        <v>-0.8374742208910404</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.924014300946042</v>
+        <v>3.00912273014179</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.238701521463424</v>
+        <v>1.102185240043996</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.450788016633304</v>
+        <v>1.40880048999044</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.05524511718587714</v>
+        <v>-0.07356249720324035</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.300467045990493</v>
+        <v>1.368944272762546</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3895659946337959</v>
+        <v>0.314083740282785</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.037344565300796</v>
+        <v>-5.207312085869249</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.954246880582522</v>
+        <v>-1.975571864219536</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.202693411697597</v>
+        <v>-4.138873471223175</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.520664048358236</v>
+        <v>-3.320601725008803</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.9258777463188168</v>
+        <v>-0.9273996857575124</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6711593285577497</v>
+        <v>-0.6845914361552613</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.6753500195499459</v>
+        <v>-0.6438308512385192</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6593017937152237</v>
+        <v>0.6733317956584712</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.282199696832869</v>
+        <v>3.254507135988888</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.2391080805847919</v>
+        <v>-0.2938840536901274</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.743765848198509</v>
+        <v>0.8238247246099192</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8266850923744229</v>
+        <v>0.7577003237676242</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>4.004768858393978</v>
+        <v>4.215646826190587</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5101643792367183</v>
+        <v>0.3852071000768454</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3343306393546551</v>
+        <v>0.3687740478784916</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-1.188204050571118</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.9038250990744592</v>
+        <v>-0.9038250990744598</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08191414670524207</v>
@@ -1349,7 +1349,7 @@
         <v>-0.2575927906365981</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.2462758750173128</v>
+        <v>-0.2462758750173129</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.5804303668845634</v>
+        <v>-0.6701655862730012</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.250740269195193</v>
+        <v>-2.357898319121735</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-2.15651078137034</v>
+        <v>-2.341554552777332</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.803788532353272</v>
+        <v>-1.776399752397342</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1335386152345145</v>
+        <v>-0.1482585226059152</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4315360674581249</v>
+        <v>-0.4468716088602718</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4137490811901419</v>
+        <v>-0.4438380148756771</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4153493846644019</v>
+        <v>-0.4163835965568351</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.309571410050719</v>
+        <v>1.324012501011392</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-0.1770800181183801</v>
+        <v>-0.1087364163199595</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-0.3323935112748981</v>
+        <v>-0.218143999181594</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-0.1194987912226749</v>
+        <v>-0.08038284357510307</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3881461253845174</v>
+        <v>0.3887141802624553</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.03866918064201851</v>
+        <v>-0.02347664950390319</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.07630029788584256</v>
+        <v>-0.04526671494955801</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.0324410189753503</v>
+        <v>-0.02487217350186665</v>
       </c>
     </row>
     <row r="28">
